--- a/Student2Grades.xlsx
+++ b/Student2Grades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
   <si>
     <t>AY</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Major2</t>
+  </si>
+  <si>
+    <t>Will Transfer in</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -550,7 +553,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -566,6 +569,9 @@
       </c>
       <c r="G2" t="s">
         <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
